--- a/data/ctd-cnv/RR1804/P2_2018/deep_chl/Station32_integrated_DCM.xlsx
+++ b/data/ctd-cnv/RR1804/P2_2018/deep_chl/Station32_integrated_DCM.xlsx
@@ -143,9 +143,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -211,12 +212,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -237,10 +242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,6 +324,14 @@
       <c r="G3" s="0" t="n">
         <v>47.779</v>
       </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">D3-$D$2</f>
+        <v>0.412141203647479</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">G3-$G$2</f>
+        <v>2.08800000000001</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -342,6 +355,14 @@
       <c r="G4" s="0" t="n">
         <v>51.398</v>
       </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">D4-$D$2</f>
+        <v>0.700810185167939</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">G4-$G$2</f>
+        <v>5.70699999999999</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -365,6 +386,14 @@
       <c r="G5" s="0" t="n">
         <v>46.232</v>
       </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">D5-$D$2</f>
+        <v>2.41005787032191</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">G5-$G$2</f>
+        <v>0.540999999999997</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -388,6 +417,14 @@
       <c r="G6" s="0" t="n">
         <v>43.161</v>
       </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">D6-$D$2</f>
+        <v>4.41021990741137</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">G6-$G$2</f>
+        <v>-2.53000000000001</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -411,6 +448,14 @@
       <c r="G7" s="0" t="n">
         <v>49.977</v>
       </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">D7-$D$2</f>
+        <v>4.6608217592584</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">G7-$G$2</f>
+        <v>4.28599999999999</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -434,6 +479,14 @@
       <c r="G8" s="0" t="n">
         <v>65.163</v>
       </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">D8-$D$2</f>
+        <v>6.41006944444962</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">G8-$G$2</f>
+        <v>19.472</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -457,6 +510,14 @@
       <c r="G9" s="0" t="n">
         <v>47.955</v>
       </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">D9-$D$2</f>
+        <v>6.7033796296455</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">G9-$G$2</f>
+        <v>2.264</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -480,6 +541,14 @@
       <c r="G10" s="0" t="n">
         <v>46.091</v>
       </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">D10-$D$2</f>
+        <v>7.87736111111008</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">G10-$G$2</f>
+        <v>0.399999999999999</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -503,6 +572,14 @@
       <c r="G11" s="0" t="n">
         <v>53.381</v>
       </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">D11-$D$2</f>
+        <v>8.0379861111287</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">G11-$G$2</f>
+        <v>7.69000000000001</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -526,6 +603,14 @@
       <c r="G12" s="0" t="n">
         <v>50.191</v>
       </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">D12-$D$2</f>
+        <v>8.28741898143198</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">G12-$G$2</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -549,6 +634,14 @@
       <c r="G13" s="0" t="n">
         <v>40.507</v>
       </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">D13-$D$2</f>
+        <v>8.37800925923511</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">G13-$G$2</f>
+        <v>-5.184</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -572,6 +665,14 @@
       <c r="G14" s="0" t="n">
         <v>51.238</v>
       </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">D14-$D$2</f>
+        <v>8.53699074068572</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">G14-$G$2</f>
+        <v>5.547</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -595,6 +696,14 @@
       <c r="G15" s="0" t="n">
         <v>69.93</v>
       </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">D15-$D$2</f>
+        <v>8.78269675921183</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">G15-$G$2</f>
+        <v>24.239</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -618,6 +727,14 @@
       <c r="G16" s="0" t="n">
         <v>58.535</v>
       </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">D16-$D$2</f>
+        <v>10.0376736110775</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">G16-$G$2</f>
+        <v>12.844</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -641,6 +758,14 @@
       <c r="G17" s="0" t="n">
         <v>77.788</v>
       </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">D17-$D$2</f>
+        <v>10.2426273147576</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">G17-$G$2</f>
+        <v>32.097</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -663,6 +788,14 @@
       </c>
       <c r="G18" s="0" t="n">
         <v>54.208</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">D18-$D$2</f>
+        <v>10.7234259259421</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <f aca="false">G18-$G$2</f>
+        <v>8.517</v>
       </c>
     </row>
   </sheetData>
